--- a/output/Tables1-2.xlsx
+++ b/output/Tables1-2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My_Papers_and_colaborations\Proj_Mies_USP\DHW\output\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My_Papers_and_colaborations\Proj_Mies_USP\DHW\DHW-Atlantic\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17640896-8825-49B2-9CA0-4BBA05FBD7A8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A9FE930-0CF0-4F7E-8064-08FAD243E80C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" activeTab="1" xr2:uid="{C5B1B53C-4A46-4510-BFB6-E1DF1A18E50B}"/>
   </bookViews>
@@ -155,7 +155,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -181,13 +181,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFEAEAEA"/>
+      <name val="Lucida Console"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF2C2828"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -202,7 +214,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -214,6 +226,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -528,10 +546,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8981120A-B27E-47A8-A9C0-ED8D3551B375}">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F23" sqref="D18:F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -770,13 +788,13 @@
         <v>0</v>
       </c>
       <c r="D18">
-        <v>8.25</v>
+        <v>8.32</v>
       </c>
       <c r="E18">
-        <v>6.08</v>
+        <v>6.33</v>
       </c>
       <c r="F18">
-        <v>10.55</v>
+        <v>10.67</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -784,13 +802,13 @@
         <v>1</v>
       </c>
       <c r="D19">
-        <v>8.6199999999999992</v>
+        <v>8.93</v>
       </c>
       <c r="E19">
-        <v>7.28</v>
+        <v>7.63</v>
       </c>
       <c r="F19">
-        <v>10.119999999999999</v>
+        <v>10.39</v>
       </c>
       <c r="G19" t="s">
         <v>30</v>
@@ -801,13 +819,13 @@
         <v>17</v>
       </c>
       <c r="D20">
-        <v>7.97</v>
+        <v>8.17</v>
       </c>
       <c r="E20">
-        <v>6.33</v>
+        <v>6.52</v>
       </c>
       <c r="F20">
-        <v>9.8000000000000007</v>
+        <v>9.9600000000000009</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -815,13 +833,13 @@
         <v>2</v>
       </c>
       <c r="D21">
-        <v>8.41</v>
+        <v>8.8800000000000008</v>
       </c>
       <c r="E21">
-        <v>7.2</v>
+        <v>7.87</v>
       </c>
       <c r="F21">
-        <v>9.68</v>
+        <v>10.029999999999999</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -829,13 +847,13 @@
         <v>3</v>
       </c>
       <c r="D22">
-        <v>8.61</v>
+        <v>8.98</v>
       </c>
       <c r="E22">
-        <v>7.2</v>
+        <v>7.64</v>
       </c>
       <c r="F22">
-        <v>10.11</v>
+        <v>10.35</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -843,14 +861,35 @@
         <v>4</v>
       </c>
       <c r="D23">
-        <v>10.79</v>
+        <v>11.12</v>
       </c>
       <c r="E23">
-        <v>9.6</v>
+        <v>10.15</v>
       </c>
       <c r="F23">
-        <v>11.91</v>
-      </c>
+        <v>12.22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D24" s="7"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D25" s="7"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D26" s="7"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D27" s="7"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D28" s="7"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D29" s="7"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D30" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -860,10 +899,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8043B81-DE5E-40A4-999C-E3E3F4D380F5}">
-  <dimension ref="A1:I43"/>
+  <dimension ref="A1:I53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1456,16 +1495,16 @@
         <v>18</v>
       </c>
       <c r="C30" s="6">
-        <v>8.2566000000000006</v>
+        <v>8.3598999999999997</v>
       </c>
       <c r="D30" s="6">
-        <v>1.1475</v>
+        <v>1.1425000000000001</v>
       </c>
       <c r="E30" s="6">
-        <v>6.2782</v>
+        <v>6.5366</v>
       </c>
       <c r="F30" s="6">
-        <v>10.8764</v>
+        <v>11.03</v>
       </c>
       <c r="G30" s="6"/>
       <c r="H30" s="5"/>
@@ -1475,20 +1514,20 @@
         <v>19</v>
       </c>
       <c r="C31" s="6">
-        <v>1.4034</v>
+        <v>1.4064000000000001</v>
       </c>
       <c r="D31" s="6">
-        <v>1.0958000000000001</v>
+        <v>1.0961000000000001</v>
       </c>
       <c r="E31" s="6">
-        <v>1.1719999999999999</v>
+        <v>1.1785000000000001</v>
       </c>
       <c r="F31" s="6">
-        <v>1.6758</v>
+        <v>1.6876</v>
       </c>
       <c r="G31" s="6">
         <f>(C31-1)*100</f>
-        <v>40.339999999999996</v>
+        <v>40.640000000000008</v>
       </c>
       <c r="H31" s="3" t="s">
         <v>38</v>
@@ -1499,20 +1538,20 @@
         <v>1</v>
       </c>
       <c r="C32" s="6">
-        <v>1.0448999999999999</v>
+        <v>1.0691999999999999</v>
       </c>
       <c r="D32" s="6">
-        <v>1.1698999999999999</v>
+        <v>1.1677</v>
       </c>
       <c r="E32" s="6">
-        <v>0.7671</v>
+        <v>0.78680000000000005</v>
       </c>
       <c r="F32" s="6">
-        <v>1.4153</v>
+        <v>1.4456</v>
       </c>
       <c r="G32" s="6">
-        <f t="shared" ref="G32:G41" si="2">(C32-1)*100</f>
-        <v>4.489999999999994</v>
+        <f>(C32-1)*100</f>
+        <v>6.9199999999999928</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>39</v>
@@ -1523,20 +1562,20 @@
         <v>17</v>
       </c>
       <c r="C33" s="6">
-        <v>0.96709999999999996</v>
+        <v>0.97950000000000004</v>
       </c>
       <c r="D33" s="6">
-        <v>1.1874</v>
+        <v>1.1875</v>
       </c>
       <c r="E33" s="6">
-        <v>0.69399999999999995</v>
+        <v>0.69099999999999995</v>
       </c>
       <c r="F33" s="6">
-        <v>1.3582000000000001</v>
+        <v>1.3656999999999999</v>
       </c>
       <c r="G33" s="6">
-        <f t="shared" si="2"/>
-        <v>-3.290000000000004</v>
+        <f>(C33-1)*100</f>
+        <v>-2.0499999999999963</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>40</v>
@@ -1547,20 +1586,20 @@
         <v>2</v>
       </c>
       <c r="C34" s="6">
-        <v>1.0185</v>
+        <v>1.0630999999999999</v>
       </c>
       <c r="D34" s="6">
-        <v>1.1666000000000001</v>
+        <v>1.1596</v>
       </c>
       <c r="E34" s="6">
-        <v>0.75770000000000004</v>
+        <v>0.78790000000000004</v>
       </c>
       <c r="F34" s="6">
-        <v>1.3678999999999999</v>
+        <v>1.4048</v>
       </c>
       <c r="G34" s="6">
-        <f t="shared" si="2"/>
-        <v>1.8499999999999961</v>
+        <f>(C34-1)*100</f>
+        <v>6.3099999999999934</v>
       </c>
       <c r="H34" s="5"/>
     </row>
@@ -1569,20 +1608,20 @@
         <v>3</v>
       </c>
       <c r="C35" s="6">
-        <v>1.0448</v>
+        <v>1.0736000000000001</v>
       </c>
       <c r="D35" s="6">
-        <v>1.173</v>
+        <v>1.1664000000000001</v>
       </c>
       <c r="E35" s="6">
-        <v>0.75990000000000002</v>
+        <v>0.78779999999999994</v>
       </c>
       <c r="F35" s="6">
-        <v>1.425</v>
+        <v>1.4363999999999999</v>
       </c>
       <c r="G35" s="6">
-        <f t="shared" si="2"/>
-        <v>4.4799999999999951</v>
+        <f>(C35-1)*100</f>
+        <v>7.360000000000011</v>
       </c>
       <c r="H35" s="5"/>
     </row>
@@ -1591,20 +1630,20 @@
         <v>4</v>
       </c>
       <c r="C36" s="6">
-        <v>1.3048</v>
+        <v>1.3313999999999999</v>
       </c>
       <c r="D36" s="6">
-        <v>1.1591</v>
+        <v>1.1516</v>
       </c>
       <c r="E36" s="6">
-        <v>0.97660000000000002</v>
+        <v>0.99790000000000001</v>
       </c>
       <c r="F36" s="6">
-        <v>1.7443</v>
+        <v>1.7318</v>
       </c>
       <c r="G36" s="6">
-        <f t="shared" si="2"/>
-        <v>30.479999999999997</v>
+        <f>(C36-1)*100</f>
+        <v>33.139999999999993</v>
       </c>
       <c r="H36" s="5"/>
     </row>
@@ -1613,20 +1652,20 @@
         <v>20</v>
       </c>
       <c r="C37" s="6">
-        <v>0.84709999999999996</v>
+        <v>0.85540000000000005</v>
       </c>
       <c r="D37" s="6">
-        <v>1.1395</v>
+        <v>1.1385000000000001</v>
       </c>
       <c r="E37" s="6">
-        <v>0.64970000000000006</v>
+        <v>0.66210000000000002</v>
       </c>
       <c r="F37" s="6">
-        <v>1.0864</v>
+        <v>1.0946</v>
       </c>
       <c r="G37" s="6">
-        <f t="shared" si="2"/>
-        <v>-15.290000000000003</v>
+        <f>(C37-1)*100</f>
+        <v>-14.459999999999996</v>
       </c>
       <c r="H37" s="5"/>
     </row>
@@ -1635,20 +1674,20 @@
         <v>21</v>
       </c>
       <c r="C38" s="6">
-        <v>0.97130000000000005</v>
+        <v>0.98019999999999996</v>
       </c>
       <c r="D38" s="6">
-        <v>1.1598999999999999</v>
+        <v>1.1547000000000001</v>
       </c>
       <c r="E38" s="6">
-        <v>0.72099999999999997</v>
+        <v>0.73399999999999999</v>
       </c>
       <c r="F38" s="6">
-        <v>1.3052999999999999</v>
+        <v>1.2891999999999999</v>
       </c>
       <c r="G38" s="6">
-        <f t="shared" si="2"/>
-        <v>-2.8699999999999948</v>
+        <f>(C38-1)*100</f>
+        <v>-1.980000000000004</v>
       </c>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.25">
@@ -1656,20 +1695,20 @@
         <v>22</v>
       </c>
       <c r="C39" s="6">
-        <v>0.93320000000000003</v>
+        <v>0.94550000000000001</v>
       </c>
       <c r="D39" s="6">
-        <v>1.1254999999999999</v>
+        <v>1.1245000000000001</v>
       </c>
       <c r="E39" s="6">
-        <v>0.73580000000000001</v>
+        <v>0.74939999999999996</v>
       </c>
       <c r="F39" s="6">
-        <v>1.1700999999999999</v>
+        <v>1.1829000000000001</v>
       </c>
       <c r="G39" s="6">
-        <f t="shared" si="2"/>
-        <v>-6.6799999999999971</v>
+        <f>(C39-1)*100</f>
+        <v>-5.4499999999999993</v>
       </c>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.25">
@@ -1677,20 +1716,20 @@
         <v>23</v>
       </c>
       <c r="C40" s="6">
-        <v>0.96899999999999997</v>
+        <v>0.98850000000000005</v>
       </c>
       <c r="D40" s="6">
-        <v>1.1242000000000001</v>
+        <v>1.1206</v>
       </c>
       <c r="E40" s="6">
-        <v>0.77090000000000003</v>
+        <v>0.79</v>
       </c>
       <c r="F40" s="6">
-        <v>1.2238</v>
+        <v>1.2292000000000001</v>
       </c>
       <c r="G40" s="6">
-        <f t="shared" si="2"/>
-        <v>-3.1000000000000028</v>
+        <f>(C40-1)*100</f>
+        <v>-1.1499999999999955</v>
       </c>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.25">
@@ -1698,27 +1737,57 @@
         <v>24</v>
       </c>
       <c r="C41" s="6">
-        <v>0.85429999999999995</v>
+        <v>0.86280000000000001</v>
       </c>
       <c r="D41" s="6">
-        <v>1.1099000000000001</v>
+        <v>1.1105</v>
       </c>
       <c r="E41" s="6">
-        <v>0.69710000000000005</v>
+        <v>0.70050000000000001</v>
       </c>
       <c r="F41" s="6">
-        <v>1.0451999999999999</v>
+        <v>1.0563</v>
       </c>
       <c r="G41" s="6">
-        <f t="shared" si="2"/>
-        <v>-14.570000000000006</v>
+        <f>(C41-1)*100</f>
+        <v>-13.719999999999999</v>
       </c>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B42" s="4"/>
+      <c r="B42" s="7"/>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B43" s="4"/>
+      <c r="B43" s="7"/>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B44" s="7"/>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B45" s="7"/>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B46" s="7"/>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B47" s="7"/>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B48" s="7"/>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B49" s="7"/>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B50" s="7"/>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B51" s="7"/>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B52" s="7"/>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B53" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
